--- a/data/Shirts/Fabric Size Calculation.xlsx
+++ b/data/Shirts/Fabric Size Calculation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Semesters\FYP\Backend\TheExportersLoom-Apis\data\Shirts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -685,12 +685,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
